--- a/planning/UserStoriesFlattie.xlsx
+++ b/planning/UserStoriesFlattie.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TBZ\M426 Methoden zu Softwareentwicklung Rollen Aufgaben Ergebnisse\wgapp\FlatsharePlanner\planning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,75 +19,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Nr</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>Story Narrative</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>Given</t>
-  </si>
-  <si>
-    <t>When</t>
-  </si>
-  <si>
-    <t>Then</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
-    <t>As a user I want to be able to register myself with an e mail adress and user name so that I can login into Flattie and search the other Members of my Flat.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to login with my email, username and password, so that I can access the internal functionalities of the app.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I want to be able to </t>
-  </si>
-  <si>
-    <t>As a user I want to be able to create a new flattie group, so that all my flat members can share information like calendar entries and cleaning plan.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to invite other users to my flattie group, so that we can shar information like calendar entries and cleaning plan.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to through a member out of my flattie group, so that flat members which don't live in our flat anymore.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to see our Flattie calendar, so that I'm informed about future events and so that i know what tasks are asigned to me.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to add a calendar entry so that every flat member can see it in the shared calendar.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to delet a calendar entry so that an unnessessary event isn't distracting from whats really important in our lives.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to add a repeatable event into the shared calendar, so that i don't have to enter the same event multiple times manually.</t>
-  </si>
-  <si>
-    <t>As a user I want to be able to categorise my calendar entries so that all members know if the event is a duty, absence or a normal event.</t>
+    <t>Flattie Story Narrative</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to categorise my calendar entries so that all members know if the event is a duty, absence or a normal event.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to register myself with an e mail adress and a user name, so that I can login into Flattie and search other Members of my Flat.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to login with my email or my username and my password, so that I can access the internal functionalities of Flattie.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create a new Flattie group, so that all my flat members can share information like calendar entries and the flat cleaning plan.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to invite other users to my Flattie group, so that we can share information like calendar entries and the flat cleaning plan.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to throw a member out of my Flattie group, so that flat members which don't live in our flat anymore cannot see the flat internal information anymore.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to throw myself out of a Flattie group, so that I cannot see the flat internal information anymore.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add a calendar entry, so that every Flattie group member can see my entry in the shared calendar.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see our Flattie calendar, so that I am informed about future events.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see our Flattie calendar, so that I know what tasks are asigned to me.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete a calendar entry, so that an unnessessary or cancelled event isn't distracting from the real events.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add a repeatable event into the shared calendar, so that I don't have to enter same event multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete a repeatable event, so that I don't have to delete same event multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete one entry of a repeatable event, so that I can delete exceptions from the repeatable events.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to update a calendar entry, so that event changes can be entered in the calendar.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to update a repeatable event, so that I don't have to change same event information multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to update one entry of a repeatable event, so that I can enter exceptions from the repeatable events.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to assign a calendar event to a Flattie group member, so that all Flattie group members can see who is responsable for the event (especially important for duties).</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see our Flattie shopping list, so that I can see what groceries and other stuff need to be bought.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add an item to the shopping list, so that the needed item will get bought by anyone.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to mark an item of the shopping list, so that every flat member sees that I am going to buy this item.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete an item of the shopping list, so that no item is getting bought twice.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see when the app is launching, so that I know at the start up that something is going on.</t>
+  </si>
+  <si>
+    <t>register and login</t>
+  </si>
+  <si>
+    <t>Flattie group handling</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>shopping list</t>
+  </si>
+  <si>
+    <t>user expirience</t>
+  </si>
+  <si>
+    <t>details planned</t>
+  </si>
+  <si>
+    <t>work in progress</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,10 +201,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,231 +548,284 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="64.88671875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planning/UserStoriesFlattie.xlsx
+++ b/planning/UserStoriesFlattie.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TBZ\M426 Methoden zu Softwareentwicklung Rollen Aufgaben Ergebnisse\wgapp\FlatsharePlanner\planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,9 +53,6 @@
     <t>As a user, I want to be able to throw a member out of my Flattie group, so that flat members which don't live in our flat anymore cannot see the flat internal information anymore.</t>
   </si>
   <si>
-    <t>As a user, I want to be able to throw myself out of a Flattie group, so that I cannot see the flat internal information anymore.</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to add a calendar entry, so that every Flattie group member can see my entry in the shared calendar.</t>
   </si>
   <si>
@@ -63,33 +65,15 @@
     <t>As a user, I want to be able to delete a calendar entry, so that an unnessessary or cancelled event isn't distracting from the real events.</t>
   </si>
   <si>
-    <t>As a user, I want to be able to add a repeatable event into the shared calendar, so that I don't have to enter same event multiple times manually.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to delete a repeatable event, so that I don't have to delete same event multiple times manually.</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to delete one entry of a repeatable event, so that I can delete exceptions from the repeatable events.</t>
   </si>
   <si>
     <t>As a user, I want to be able to update a calendar entry, so that event changes can be entered in the calendar.</t>
   </si>
   <si>
-    <t>As a user, I want to be able to update a repeatable event, so that I don't have to change same event information multiple times manually.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to update one entry of a repeatable event, so that I can enter exceptions from the repeatable events.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to assign a calendar event to a Flattie group member, so that all Flattie group members can see who is responsable for the event (especially important for duties).</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to see our Flattie shopping list, so that I can see what groceries and other stuff need to be bought.</t>
   </si>
   <si>
-    <t>As a user, I want to be able to add an item to the shopping list, so that the needed item will get bought by anyone.</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to mark an item of the shopping list, so that every flat member sees that I am going to buy this item.</t>
   </si>
   <si>
@@ -127,12 +111,33 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to throw myself out of a Flattie group, so that I can join or create another group. </t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add a repeatable event into the shared calendar, so that I don't have to enter same events multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete a repeatable event, so that I don't have to delete same events multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to update a repeatable event, so that I don't have to change the same event information multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to update one entry of a repeatable event, so that I can enter exceptions for the repeatable event.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to assign a calendar event to a Flattie group member, so that all Flattie group members can see who is responsible for the event (especially important for duties).</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add an item to the shopping list, so that the needed item will get bought by a member of the group.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,32 +553,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.85546875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="13" customWidth="1"/>
+    <col min="4" max="5" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.88671875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -584,7 +589,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -593,25 +598,25 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -620,7 +625,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -628,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -636,12 +641,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -649,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -657,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -665,100 +670,100 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -766,62 +771,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/planning/UserStoriesFlattie.xlsx
+++ b/planning/UserStoriesFlattie.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TBZ\M426 Methoden zu Softwareentwicklung Rollen Aufgaben Ergebnisse\wgapp\FlatsharePlanner\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatyana\Dropbox\Lehre\M426\App\FlatsharePlanner\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Nr</t>
   </si>
@@ -35,54 +35,6 @@
     <t>Flattie Story Narrative</t>
   </si>
   <si>
-    <t>As a user, I want to be able to categorise my calendar entries so that all members know if the event is a duty, absence or a normal event.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to register myself with an e mail adress and a user name, so that I can login into Flattie and search other Members of my Flat.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to login with my email or my username and my password, so that I can access the internal functionalities of Flattie.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to create a new Flattie group, so that all my flat members can share information like calendar entries and the flat cleaning plan.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to invite other users to my Flattie group, so that we can share information like calendar entries and the flat cleaning plan.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to throw a member out of my Flattie group, so that flat members which don't live in our flat anymore cannot see the flat internal information anymore.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to add a calendar entry, so that every Flattie group member can see my entry in the shared calendar.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to see our Flattie calendar, so that I am informed about future events.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to see our Flattie calendar, so that I know what tasks are asigned to me.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to delete a calendar entry, so that an unnessessary or cancelled event isn't distracting from the real events.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to delete one entry of a repeatable event, so that I can delete exceptions from the repeatable events.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to update a calendar entry, so that event changes can be entered in the calendar.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to see our Flattie shopping list, so that I can see what groceries and other stuff need to be bought.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to mark an item of the shopping list, so that every flat member sees that I am going to buy this item.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to delete an item of the shopping list, so that no item is getting bought twice.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to see when the app is launching, so that I know at the start up that something is going on.</t>
-  </si>
-  <si>
     <t>register and login</t>
   </si>
   <si>
@@ -113,25 +65,79 @@
     <t>done</t>
   </si>
   <si>
-    <t xml:space="preserve">As a user, I want to be able to throw myself out of a Flattie group, so that I can join or create another group. </t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to add a repeatable event into the shared calendar, so that I don't have to enter same events multiple times manually.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to delete a repeatable event, so that I don't have to delete same events multiple times manually.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to update a repeatable event, so that I don't have to change the same event information multiple times manually.</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to update one entry of a repeatable event, so that I can enter exceptions for the repeatable event.</t>
   </si>
   <si>
-    <t>As a user, I want to be able to assign a calendar event to a Flattie group member, so that all Flattie group members can see who is responsible for the event (especially important for duties).</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to add an item to the shopping list, so that the needed item will get bought by a member of the group.</t>
+    <t>As a user, I want to be able to register myself with an e mail address and a user name so that I can login into Flattie</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to login with my email or username and my password so that I can access the internal functionalities of Flattie.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to invite other users to my Flattie group so that we can share information like calendar entries and the flat cleaning plan.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to create a new Flattie group so that all my flatmates can share information</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to remove a member from my Flattie group so that they cannot see the flat information anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to remove myself from a Flattie group so that I can join or create another group. </t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see our Flattie calendar so that I am informed about future events.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see our Flattie calendar so that I know what tasks are assigned to me.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add a calendar entry so that every Flattie group member can see my entry in the shared calendar.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add a repeatable event into the shared calendar so that I don't have to enter same events multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to remove a calendar entry so that a cancelled event isn't distracting from the real events.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete a repeatable event so that I don't have to delete same events multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete one entry of a repeatable event so that I can handle exceptions for the repeatable events.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to update a calendar entry so that event changes can be entered in the calendar.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to update a repeatable event so that I don't have to change the same event information multiple times manually.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to categorize my calendar entries so that all members know if the event is a duty, absence or a normal event.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to assign a calendar event to a Flattie group member so that all Flattie group members can see who is responsible for a event</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see our Flattie shopping list so that I can see what items need to be bought.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to add an item to the shopping list so that the  group members are informed about it needing to be bought</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to mark an item on the shopping list so that every flat member sees that I am going to buy this item.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete an item off the shopping list so that the item will not be shown anymore</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to see when the app is launching, so that I know that the app is loading.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to remove my account so that my user information is removed from the application</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to logout so that my information is kept secure</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,7 +271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,24 +567,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="13" customWidth="1"/>
-    <col min="4" max="5" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.88671875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="4.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="6.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.90625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -589,7 +595,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -598,25 +604,25 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -625,208 +631,224 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/planning/UserStoriesFlattie.xlsx
+++ b/planning/UserStoriesFlattie.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Nr</t>
   </si>
@@ -50,21 +51,6 @@
     <t>user expirience</t>
   </si>
   <si>
-    <t>details planned</t>
-  </si>
-  <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>As a user, I want to be able to update one entry of a repeatable event, so that I can enter exceptions for the repeatable event.</t>
   </si>
   <si>
@@ -138,13 +124,28 @@
   </si>
   <si>
     <t>As a user, I want to be able to logout so that my information is kept secure</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Must</t>
+  </si>
+  <si>
+    <t>Should</t>
+  </si>
+  <si>
+    <t>Nice to have</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,16 +192,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,11 +223,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -252,6 +282,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,11 +616,12 @@
     <col min="3" max="3" width="5.6328125" style="13" customWidth="1"/>
     <col min="4" max="5" width="6.90625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="6.90625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.54296875" style="1"/>
+    <col min="9" max="9" width="13.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -595,7 +632,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -604,22 +641,14 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -630,225 +659,324 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D32" s="13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
